--- a/biology/Zoologie/Chalarodon_madagascariensis/Chalarodon_madagascariensis.xlsx
+++ b/biology/Zoologie/Chalarodon_madagascariensis/Chalarodon_madagascariensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chalarodon madagascariensis est une espèce de sauriens de la famille des Opluridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chalarodon madagascariensis est une espèce de sauriens de la famille des Opluridae.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Sud-Ouest de Madagascar[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Sud-Ouest de Madagascar.
 </t>
         </is>
       </c>
@@ -568,9 +584,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tropidogaster blainvillii[2] est un nom invalide[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tropidogaster blainvillii est un nom invalide.
 </t>
         </is>
       </c>
@@ -599,7 +617,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de madagascar(i) et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte.
 </t>
@@ -630,7 +650,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(de) Peters, 1854 : Diagnosen neuer Batrachier, welche zusammen mit der früher (24. Juli und 17. August) gegebenen Übersicht der Schlangen und Eidechsen mitgetheilt werden, rapport sur les négociations appropriées de l’Académie royale prussienne des sciences de Berlin, vol. 1854, p. 614-628 (texte intégral).</t>
         </is>
